--- a/sample_data/two_monomer_systems/pdb-5-066.xlsx
+++ b/sample_data/two_monomer_systems/pdb-5-066.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suprajachittari/Documents/GitHub/prism/sample_data/two_monomer_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BCE5C6-B453-8E48-978D-6B9B6374094C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB76688-CAC4-8E4F-8B81-D1CD95E2DCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40800" yWindow="6840" windowWidth="31100" windowHeight="19680" xr2:uid="{1DA760D3-2088-4023-A6DE-DE2667C72FD9}"/>
   </bookViews>
@@ -2089,7 +2089,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="2">
-                  <c:v>7.3164180154044134E-2</c:v>
+                  <c:v>7.1056038904441454E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.15887982118826283</c:v>
@@ -2404,310 +2404,310 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="104"/>
                 <c:pt idx="2">
-                  <c:v>0.47470347195979307</c:v>
+                  <c:v>0.9139395017306895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46015788105197952</c:v>
+                  <c:v>0.80400203336058007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.44358991856118357</c:v>
+                  <c:v>0.6932457278030375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.4307448490765165</c:v>
+                  <c:v>0.61477923696502068</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41805554856852511</c:v>
+                  <c:v>0.5502410883292681</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40601301311304311</c:v>
+                  <c:v>0.4860905382618565</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39153312923617678</c:v>
+                  <c:v>0.43501016312066521</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.38022006430660349</c:v>
+                  <c:v>0.38781408162357983</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.36960005260644152</c:v>
+                  <c:v>0.35110816182097382</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35794851466074395</c:v>
+                  <c:v>0.31707516052629436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34753111184375168</c:v>
+                  <c:v>0.28680327768414737</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.3362593971665413</c:v>
+                  <c:v>0.25728870285794686</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.32861342611322381</c:v>
+                  <c:v>0.23895715417047472</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.31520067329958629</c:v>
+                  <c:v>0.21020647953730401</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30517974893378169</c:v>
+                  <c:v>0.19078096329261979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29694956949569495</c:v>
+                  <c:v>0.17735847796186982</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28914312145499849</c:v>
+                  <c:v>0.16236903391024413</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27790992227139422</c:v>
+                  <c:v>0.14477194576346264</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.277534194667029</c:v>
+                  <c:v>0.14168010010400958</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.26246319782093686</c:v>
+                  <c:v>0.12357801090493674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25838292583829259</c:v>
+                  <c:v>0.11787169753661049</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.24382068575818858</c:v>
+                  <c:v>0.10311109322341089</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23790349618877696</c:v>
+                  <c:v>9.4513427982367323E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.23358914262492192</c:v>
+                  <c:v>9.0411141466340092E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21810012412904894</c:v>
+                  <c:v>7.8468231592810481E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22758385512598178</c:v>
+                  <c:v>8.2377093709579199E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.20143567134755769</c:v>
+                  <c:v>6.4906484508971796E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20359035508117079</c:v>
+                  <c:v>6.5010002046544793E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18731526799437631</c:v>
+                  <c:v>5.4973904125135517E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.19290733742166138</c:v>
+                  <c:v>5.6784852539507234E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.17849581972801318</c:v>
+                  <c:v>4.8577165950750185E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.16090429782157345</c:v>
+                  <c:v>4.0319607773776273E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.17789047270009983</c:v>
+                  <c:v>4.6532937057634435E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.16561751316090029</c:v>
+                  <c:v>4.0536617882860546E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.15569801541294415</c:v>
+                  <c:v>3.6013977723293622E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.15446556928106597</c:v>
+                  <c:v>3.4891116627230323E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.15690808699408637</c:v>
+                  <c:v>3.5055280391908222E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11019313229421797</c:v>
+                  <c:v>2.0576923641337428E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.13057862449826602</c:v>
+                  <c:v>2.5655739426866934E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.14117654751026931</c:v>
+                  <c:v>2.8005879603245701E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.1287385538528851</c:v>
+                  <c:v>2.4071126403233101E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12151709013462927</c:v>
+                  <c:v>2.1811080040061812E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.12089577761132166</c:v>
+                  <c:v>2.1110618376628955E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11099080224583799</c:v>
+                  <c:v>1.8419543648126972E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11795087158733934</c:v>
+                  <c:v>1.9552366467439186E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.11438763640615519</c:v>
+                  <c:v>1.8417584621293167E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.11711625011773667</c:v>
+                  <c:v>1.8576232351089936E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.0849254760821493E-2</c:v>
+                  <c:v>1.3087845295915997E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.1375689496402346E-2</c:v>
+                  <c:v>1.2896927930758445E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.10506880020664701</c:v>
+                  <c:v>1.508126770609325E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.8973999853939313E-2</c:v>
+                  <c:v>2.0933068051025945E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>8.7681739973941367E-2</c:v>
+                  <c:v>1.1514032486034447E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.11137731860679168</c:v>
+                  <c:v>1.5255583369817831E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2672326528661904E-2</c:v>
+                  <c:v>6.0511882658019957E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.5983221438897286E-2</c:v>
+                  <c:v>6.2893015210119009E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.10031570311809998</c:v>
+                  <c:v>1.2547043586623978E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.3455064982947743E-2</c:v>
+                  <c:v>7.0151542180891448E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.7130994133428993E-2</c:v>
+                  <c:v>4.8871693418817488E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>8.7870016354835032E-2</c:v>
+                  <c:v>1.001097142685467E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>7.0783587226857514E-2</c:v>
+                  <c:v>7.5557990367010304E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.2139899463030214E-2</c:v>
+                  <c:v>8.8595795700365555E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>8.3326617346087539E-2</c:v>
+                  <c:v>8.8688756455668066E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.5112163649854902E-2</c:v>
+                  <c:v>7.7055733137842983E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.4641290159218E-2</c:v>
+                  <c:v>4.1662433964884532E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7.3444071701409014E-2</c:v>
+                  <c:v>7.2734294659899954E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.9447104373963659E-2</c:v>
+                  <c:v>5.5617420434025157E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.1762149663477641E-2</c:v>
+                  <c:v>4.6800390908881941E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.7245808271588218E-2</c:v>
+                  <c:v>8.5077330110006292E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.11098529797942325</c:v>
+                  <c:v>1.1456835955195912E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>6.8199826315155587E-2</c:v>
+                  <c:v>6.1302284980601753E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.11099234837592852</c:v>
+                  <c:v>1.1231765084689153E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>4.7328162188371922E-2</c:v>
+                  <c:v>3.926079873028363E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.10761059938641696</c:v>
+                  <c:v>1.0539698803647267E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.2621086034513446E-2</c:v>
+                  <c:v>1.7121599188543223E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3.7653668719878353E-2</c:v>
+                  <c:v>2.9569065434091107E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.10022316271403395</c:v>
+                  <c:v>9.1997812462470737E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.11372755296137303</c:v>
+                  <c:v>1.0793786804463334E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.10517448253832477</c:v>
+                  <c:v>9.5554519841285473E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.3544375427801118E-2</c:v>
+                  <c:v>7.0133363951220135E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.10506212884929338</c:v>
+                  <c:v>9.3198565094635422E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>7.9271338053303789E-2</c:v>
+                  <c:v>6.4673075467503336E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.9354949962021345E-2</c:v>
+                  <c:v>2.7698484162681069E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.11215915759482509</c:v>
+                  <c:v>9.728088206875405E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.12158735009765563</c:v>
+                  <c:v>1.0757383701138991E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.10103918145553867</c:v>
+                  <c:v>8.2424051361477662E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.11801009541837963</c:v>
+                  <c:v>1.0060420596042653E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.7131394204808523E-2</c:v>
+                  <c:v>5.6599579964329129E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.2076282459996587E-3</c:v>
+                  <c:v>3.1798613233938779E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.602459647918619E-2</c:v>
+                  <c:v>2.2909553228133827E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.2719706625048683E-2</c:v>
+                  <c:v>6.0860975619562423E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.11892048702863253</c:v>
+                  <c:v>9.5420595357252613E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.10205401985346518</c:v>
+                  <c:v>7.6602983800394186E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.11168828992622817</c:v>
+                  <c:v>8.6320114833311427E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.2671573693410864E-2</c:v>
+                  <c:v>6.5849447322845357E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.11689617119380086</c:v>
+                  <c:v>8.9521348613983073E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.11305053520733921</c:v>
+                  <c:v>8.4433201773287947E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.8625575526476919E-2</c:v>
+                  <c:v>1.0494338677108173E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.121674022688451</c:v>
+                  <c:v>9.1827509035772043E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.5637422439677507E-2</c:v>
+                  <c:v>5.6039905951089392E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.1120039950098761</c:v>
+                  <c:v>8.0007113860838391E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.9498830595224298E-2</c:v>
+                  <c:v>4.3604416957345295E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.12240507472120637</c:v>
+                  <c:v>8.7958343650861252E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2751,7 +2751,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
                 <c:pt idx="2">
-                  <c:v>7.3164180154044134E-2</c:v>
+                  <c:v>7.1056038904441454E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.15887982118826283</c:v>
@@ -3018,262 +3018,262 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="88"/>
                 <c:pt idx="2">
-                  <c:v>0.52529652804020699</c:v>
+                  <c:v>0.94293344918786881</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53984211894802037</c:v>
+                  <c:v>0.87942441672653071</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55641008143881643</c:v>
+                  <c:v>0.81074073803283808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56925515092348344</c:v>
+                  <c:v>0.75750854997781147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.58194445143147489</c:v>
+                  <c:v>0.71413781192648085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59398698688695695</c:v>
+                  <c:v>0.66303372013826711</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60846687076382322</c:v>
+                  <c:v>0.63030288716976635</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6197799356933964</c:v>
+                  <c:v>0.58939646563886894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.63039994739355854</c:v>
+                  <c:v>0.5583500254380579</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64205148533925605</c:v>
+                  <c:v>0.53026502450269852</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.65246888815624837</c:v>
+                  <c:v>0.502032345981684</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6637406028334587</c:v>
+                  <c:v>0.47350671692992324</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.67138657388677625</c:v>
+                  <c:v>0.45518595947117069</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68479932670041366</c:v>
+                  <c:v>0.42579813830094104</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69482025106621836</c:v>
+                  <c:v>0.40497970989868348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.70305043050430505</c:v>
+                  <c:v>0.3915049008283607</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.71085687854500146</c:v>
+                  <c:v>0.37218081531071107</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.72209007772860578</c:v>
+                  <c:v>0.35071408452175312</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.722465805332971</c:v>
+                  <c:v>0.34386749359749524</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.73753680217906314</c:v>
+                  <c:v>0.3237710039014885</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.7416170741617073</c:v>
+                  <c:v>0.31543284830241897</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7561793142418114</c:v>
+                  <c:v>0.29815432053470448</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.76209650381122296</c:v>
+                  <c:v>0.28228261457248283</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.76641085737507808</c:v>
+                  <c:v>0.27657468061414386</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.781899875870951</c:v>
+                  <c:v>0.26228325689637322</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.77241614487401822</c:v>
+                  <c:v>0.26067406831668521</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.79856432865244231</c:v>
+                  <c:v>0.23990709110489977</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.79640964491882915</c:v>
+                  <c:v>0.23710513631963351</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.81268473200562363</c:v>
+                  <c:v>0.22237551897283489</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.80709266257833867</c:v>
+                  <c:v>0.22150759707722306</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.82150418027198679</c:v>
+                  <c:v>0.20844686762177797</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.83909570217842655</c:v>
+                  <c:v>0.19603861343580933</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.82210952729990006</c:v>
+                  <c:v>0.20050210127608625</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83438248683909966</c:v>
+                  <c:v>0.19040918892958827</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.84430198458705574</c:v>
+                  <c:v>0.18208211780051989</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.84553443071893408</c:v>
+                  <c:v>0.17807212750262538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.84309191300591357</c:v>
+                  <c:v>0.17561617444085462</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.88980686770578199</c:v>
+                  <c:v>0.1549184497209912</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.86942137550173404</c:v>
+                  <c:v>0.15926642484488757</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.85882345248973069</c:v>
+                  <c:v>0.15884444341308393</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.87126144614711487</c:v>
+                  <c:v>0.15188600356503323</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.8784829098653707</c:v>
+                  <c:v>0.14701261357883977</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.87910422238867836</c:v>
+                  <c:v>0.14312373433228334</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.88900919775416198</c:v>
+                  <c:v>0.13755601985389435</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.8820491284126607</c:v>
+                  <c:v>0.13632403136790316</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.88561236359384488</c:v>
+                  <c:v>0.13294705756667638</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.88288374988226337</c:v>
+                  <c:v>0.13056460845852677</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.9091507452391786</c:v>
+                  <c:v>0.12211363352261972</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.9086243105035976</c:v>
+                  <c:v>0.11956977980460828</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.89493119979335289</c:v>
+                  <c:v>0.1197664554041087</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.98102600014606078</c:v>
+                  <c:v>0.1009104124519918</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.91231826002605865</c:v>
+                  <c:v>0.1116981884268843</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.88862268139320832</c:v>
+                  <c:v>0.11348303101058066</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.94732767347133806</c:v>
+                  <c:v>0.10147051367230023</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.94401677856110278</c:v>
+                  <c:v>9.8879375597189983E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.89968429688189999</c:v>
+                  <c:v>0.10491657310648735</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.93654493501705238</c:v>
+                  <c:v>9.6534159652475734E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.95286900586657097</c:v>
+                  <c:v>9.212244571969061E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.91212998364516495</c:v>
+                  <c:v>9.6888831436016717E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.92921641277314249</c:v>
+                  <c:v>9.2479649136116532E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.91786010053696976</c:v>
+                  <c:v>9.2303232129084409E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.91667338265391241</c:v>
+                  <c:v>9.0966378623586808E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.92488783635014504</c:v>
+                  <c:v>8.8463725232502316E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.95535870984078197</c:v>
+                  <c:v>8.3129628451522414E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.9265559282985909</c:v>
+                  <c:v>8.5553069527669154E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.94055289562603639</c:v>
+                  <c:v>8.2043623492976683E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.9482378503365223</c:v>
+                  <c:v>7.9934807710699524E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.91275419172841177</c:v>
+                  <c:v>8.298595368641902E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.88901470202057675</c:v>
+                  <c:v>8.5563719767239768E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.93180017368484447</c:v>
+                  <c:v>7.8090400892691342E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.88900765162407147</c:v>
+                  <c:v>8.3876817017680821E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.95267183781162812</c:v>
+                  <c:v>7.3682489093579606E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.89238940061358307</c:v>
+                  <c:v>8.1490883104005457E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.9773789139654866</c:v>
+                  <c:v>6.8972395708976036E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.9623463312801217</c:v>
+                  <c:v>7.0460085730366412E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.89977683728596602</c:v>
+                  <c:v>7.700619726492279E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.88627244703862695</c:v>
+                  <c:v>7.8425421271374932E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.89482551746167516</c:v>
+                  <c:v>7.5798512342536581E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.91645562457219887</c:v>
+                  <c:v>7.1729923217462729E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.89493787115070667</c:v>
+                  <c:v>7.4018006995830096E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.92072866194669611</c:v>
+                  <c:v>7.0035858893854136E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.96064505003797862</c:v>
+                  <c:v>6.3037801500019072E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.88784084240517491</c:v>
+                  <c:v>7.1797504882928742E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.87841264990234447</c:v>
+                  <c:v>7.2459998172571968E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8989608185444613</c:v>
+                  <c:v>6.8373273450288666E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8819899045816203</c:v>
+                  <c:v>7.010388100631805E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,10 +5094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805B601C-025E-5E47-B802-BF38BCDD918A}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -5115,13 +5115,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>7.3164180154044134E-2</v>
+        <v>7.1056038904441454E-2</v>
       </c>
       <c r="B2">
-        <v>0.47470347195979307</v>
+        <v>0.9139395017306895</v>
       </c>
       <c r="C2">
-        <v>0.52529652804020699</v>
+        <v>0.94293344918786881</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5129,10 +5129,10 @@
         <v>0.15887982118826283</v>
       </c>
       <c r="B3">
-        <v>0.46015788105197952</v>
+        <v>0.80400203336058007</v>
       </c>
       <c r="C3">
-        <v>0.53984211894802037</v>
+        <v>0.87942441672653071</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5140,10 +5140,10 @@
         <v>0.24766147053342291</v>
       </c>
       <c r="B4">
-        <v>0.44358991856118357</v>
+        <v>0.6932457278030375</v>
       </c>
       <c r="C4">
-        <v>0.55641008143881643</v>
+        <v>0.81074073803283808</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -5151,10 +5151,10 @@
         <v>0.31292069414912671</v>
       </c>
       <c r="B5">
-        <v>0.4307448490765165</v>
+        <v>0.61477923696502068</v>
       </c>
       <c r="C5">
-        <v>0.56925515092348344</v>
+        <v>0.75750854997781147</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5162,10 +5162,10 @@
         <v>0.36638303779790682</v>
       </c>
       <c r="B6">
-        <v>0.41805554856852511</v>
+        <v>0.5502410883292681</v>
       </c>
       <c r="C6">
-        <v>0.58194445143147489</v>
+        <v>0.71413781192648085</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5173,10 +5173,10 @@
         <v>0.42365174355127866</v>
       </c>
       <c r="B7">
-        <v>0.40601301311304311</v>
+        <v>0.4860905382618565</v>
       </c>
       <c r="C7">
-        <v>0.59398698688695695</v>
+        <v>0.66303372013826711</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5184,10 +5184,10 @@
         <v>0.46514180115822024</v>
       </c>
       <c r="B8">
-        <v>0.39153312923617678</v>
+        <v>0.43501016312066521</v>
       </c>
       <c r="C8">
-        <v>0.60846687076382322</v>
+        <v>0.63030288716976635</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5195,10 +5195,10 @@
         <v>0.50898324388470728</v>
       </c>
       <c r="B9">
-        <v>0.38022006430660349</v>
+        <v>0.38781408162357983</v>
       </c>
       <c r="C9">
-        <v>0.6197799356933964</v>
+        <v>0.58939646563886894</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5206,10 +5206,10 @@
         <v>0.54268371147503092</v>
       </c>
       <c r="B10">
-        <v>0.36960005260644152</v>
+        <v>0.35110816182097382</v>
       </c>
       <c r="C10">
-        <v>0.63039994739355854</v>
+        <v>0.5583500254380579</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5217,10 +5217,10 @@
         <v>0.57356835490793534</v>
       </c>
       <c r="B11">
-        <v>0.35794851466074395</v>
+        <v>0.31707516052629436</v>
       </c>
       <c r="C11">
-        <v>0.64205148533925605</v>
+        <v>0.53026502450269852</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5228,10 +5228,10 @@
         <v>0.60271863908073531</v>
       </c>
       <c r="B12">
-        <v>0.34753111184375168</v>
+        <v>0.28680327768414737</v>
       </c>
       <c r="C12">
-        <v>0.65246888815624837</v>
+        <v>0.502032345981684</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5239,10 +5239,10 @@
         <v>0.63165561253941938</v>
       </c>
       <c r="B13">
-        <v>0.3362593971665413</v>
+        <v>0.25728870285794686</v>
       </c>
       <c r="C13">
-        <v>0.6637406028334587</v>
+        <v>0.47350671692992324</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5250,10 +5250,10 @@
         <v>0.64993998787119178</v>
       </c>
       <c r="B14">
-        <v>0.32861342611322381</v>
+        <v>0.23895715417047472</v>
       </c>
       <c r="C14">
-        <v>0.67138657388677625</v>
+        <v>0.45518595947117069</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5261,10 +5261,10 @@
         <v>0.67895439292025261</v>
       </c>
       <c r="B15">
-        <v>0.31520067329958629</v>
+        <v>0.21020647953730401</v>
       </c>
       <c r="C15">
-        <v>0.68479932670041366</v>
+        <v>0.42579813830094104</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5272,10 +5272,10 @@
         <v>0.69905502556273358</v>
       </c>
       <c r="B16">
-        <v>0.30517974893378169</v>
+        <v>0.19078096329261979</v>
       </c>
       <c r="C16">
-        <v>0.69482025106621836</v>
+        <v>0.40497970989868348</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5283,10 +5283,10 @@
         <v>0.71247406621605225</v>
       </c>
       <c r="B17">
-        <v>0.29694956949569495</v>
+        <v>0.17735847796186982</v>
       </c>
       <c r="C17">
-        <v>0.70305043050430505</v>
+        <v>0.3915049008283607</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -5294,10 +5294,10 @@
         <v>0.72966759325035957</v>
       </c>
       <c r="B18">
-        <v>0.28914312145499849</v>
+        <v>0.16236903391024413</v>
       </c>
       <c r="C18">
-        <v>0.71085687854500146</v>
+        <v>0.37218081531071107</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -5305,10 +5305,10 @@
         <v>0.74922275434795305</v>
       </c>
       <c r="B19">
-        <v>0.27790992227139422</v>
+        <v>0.14477194576346264</v>
       </c>
       <c r="C19">
-        <v>0.72209007772860578</v>
+        <v>0.35071408452175312</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -5316,10 +5316,10 @@
         <v>0.75424626627241076</v>
       </c>
       <c r="B20">
-        <v>0.277534194667029</v>
+        <v>0.14168010010400958</v>
       </c>
       <c r="C20">
-        <v>0.722465805332971</v>
+        <v>0.34386749359749524</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -5327,10 +5327,10 @@
         <v>0.77333704096410205</v>
       </c>
       <c r="B21">
-        <v>0.26246319782093686</v>
+        <v>0.12357801090493674</v>
       </c>
       <c r="C21">
-        <v>0.73753680217906314</v>
+        <v>0.3237710039014885</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -5338,10 +5338,10 @@
         <v>0.78038930022922748</v>
       </c>
       <c r="B22">
-        <v>0.25838292583829259</v>
+        <v>0.11787169753661049</v>
       </c>
       <c r="C22">
-        <v>0.7416170741617073</v>
+        <v>0.31543284830241897</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -5349,10 +5349,10 @@
         <v>0.79641648313404423</v>
       </c>
       <c r="B23">
-        <v>0.24382068575818858</v>
+        <v>0.10311109322341089</v>
       </c>
       <c r="C23">
-        <v>0.7561793142418114</v>
+        <v>0.29815432053470448</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -5360,10 +5360,10 @@
         <v>0.80875043314098172</v>
       </c>
       <c r="B24">
-        <v>0.23790349618877696</v>
+        <v>9.4513427982367323E-2</v>
       </c>
       <c r="C24">
-        <v>0.76209650381122296</v>
+        <v>0.28228261457248283</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -5371,10 +5371,10 @@
         <v>0.81367245186465764</v>
       </c>
       <c r="B25">
-        <v>0.23358914262492192</v>
+        <v>9.0411141466340092E-2</v>
       </c>
       <c r="C25">
-        <v>0.76641085737507808</v>
+        <v>0.27657468061414386</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -5382,10 +5382,10 @@
         <v>0.82680086374255191</v>
       </c>
       <c r="B26">
-        <v>0.21810012412904894</v>
+        <v>7.8468231592810481E-2</v>
       </c>
       <c r="C26">
-        <v>0.781899875870951</v>
+        <v>0.26228325689637322</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -5393,10 +5393,10 @@
         <v>0.82575000053451109</v>
       </c>
       <c r="B27">
-        <v>0.22758385512598178</v>
+        <v>8.2377093709579199E-2</v>
       </c>
       <c r="C27">
-        <v>0.77241614487401822</v>
+        <v>0.26067406831668521</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -5404,10 +5404,10 @@
         <v>0.84488297154969372</v>
       </c>
       <c r="B28">
-        <v>0.20143567134755769</v>
+        <v>6.4906484508971796E-2</v>
       </c>
       <c r="C28">
-        <v>0.79856432865244231</v>
+        <v>0.23990709110489977</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -5415,10 +5415,10 @@
         <v>0.84627986779330622</v>
       </c>
       <c r="B29">
-        <v>0.20359035508117079</v>
+        <v>6.5010002046544793E-2</v>
       </c>
       <c r="C29">
-        <v>0.79640964491882915</v>
+        <v>0.23710513631963351</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -5426,10 +5426,10 @@
         <v>0.85871658880284307</v>
       </c>
       <c r="B30">
-        <v>0.18731526799437631</v>
+        <v>5.4973904125135517E-2</v>
       </c>
       <c r="C30">
-        <v>0.81268473200562363</v>
+        <v>0.22237551897283489</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -5437,10 +5437,10 @@
         <v>0.85829292787419353</v>
       </c>
       <c r="B31">
-        <v>0.19290733742166138</v>
+        <v>5.6784852539507234E-2</v>
       </c>
       <c r="C31">
-        <v>0.80709266257833867</v>
+        <v>0.22150759707722306</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -5448,10 +5448,10 @@
         <v>0.86898775347673096</v>
       </c>
       <c r="B32">
-        <v>0.17849581972801318</v>
+        <v>4.8577165950750185E-2</v>
       </c>
       <c r="C32">
-        <v>0.82150418027198679</v>
+        <v>0.20844686762177797</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -5459,10 +5459,10 @@
         <v>0.87936969562216472</v>
       </c>
       <c r="B33">
-        <v>0.16090429782157345</v>
+        <v>4.0319607773776273E-2</v>
       </c>
       <c r="C33">
-        <v>0.83909570217842655</v>
+        <v>0.19603861343580933</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -5470,10 +5470,10 @@
         <v>0.87407396026484407</v>
       </c>
       <c r="B34">
-        <v>0.17789047270009983</v>
+        <v>4.6532937057634435E-2</v>
       </c>
       <c r="C34">
-        <v>0.82210952729990006</v>
+        <v>0.20050210127608625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -5481,10 +5481,10 @@
         <v>0.8821718602039923</v>
       </c>
       <c r="B35">
-        <v>0.16561751316090029</v>
+        <v>4.0536617882860546E-2</v>
       </c>
       <c r="C35">
-        <v>0.83438248683909966</v>
+        <v>0.19040918892958827</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -5492,10 +5492,10 @@
         <v>0.88864857374718009</v>
       </c>
       <c r="B36">
-        <v>0.15569801541294415</v>
+        <v>3.6013977723293622E-2</v>
       </c>
       <c r="C36">
-        <v>0.84430198458705574</v>
+        <v>0.18208211780051989</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -5503,10 +5503,10 @@
         <v>0.89125959440574165</v>
       </c>
       <c r="B37">
-        <v>0.15446556928106597</v>
+        <v>3.4891116627230323E-2</v>
       </c>
       <c r="C37">
-        <v>0.84553443071893408</v>
+        <v>0.17807212750262538</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -5514,10 +5514,10 @@
         <v>0.89244864480907327</v>
       </c>
       <c r="B38">
-        <v>0.15690808699408637</v>
+        <v>3.5055280391908222E-2</v>
       </c>
       <c r="C38">
-        <v>0.84309191300591357</v>
+        <v>0.17561617444085462</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -5525,10 +5525,10 @@
         <v>0.91010538285923903</v>
       </c>
       <c r="B39">
-        <v>0.11019313229421797</v>
+        <v>2.0576923641337428E-2</v>
       </c>
       <c r="C39">
-        <v>0.88980686770578199</v>
+        <v>0.1549184497209912</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -5536,10 +5536,10 @@
         <v>0.90541544695222675</v>
       </c>
       <c r="B40">
-        <v>0.13057862449826602</v>
+        <v>2.5655739426866934E-2</v>
       </c>
       <c r="C40">
-        <v>0.86942137550173404</v>
+        <v>0.15926642484488757</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -5547,10 +5547,10 @@
         <v>0.90450196622608559</v>
       </c>
       <c r="B41">
-        <v>0.14117654751026931</v>
+        <v>2.8005879603245701E-2</v>
       </c>
       <c r="C41">
-        <v>0.85882345248973069</v>
+        <v>0.15884444341308393</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -5558,10 +5558,10 @@
         <v>0.90998900622721668</v>
       </c>
       <c r="B42">
-        <v>0.1287385538528851</v>
+        <v>2.4071126403233101E-2</v>
       </c>
       <c r="C42">
-        <v>0.87126144614711487</v>
+        <v>0.15188600356503323</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -5569,10 +5569,10 @@
         <v>0.91359326806725027</v>
       </c>
       <c r="B43">
-        <v>0.12151709013462927</v>
+        <v>2.1811080040061812E-2</v>
       </c>
       <c r="C43">
-        <v>0.8784829098653707</v>
+        <v>0.14701261357883977</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -5580,10 +5580,10 @@
         <v>0.91593841173436685</v>
       </c>
       <c r="B44">
-        <v>0.12089577761132166</v>
+        <v>2.1110618376628955E-2</v>
       </c>
       <c r="C44">
-        <v>0.87910422238867836</v>
+        <v>0.14312373433228334</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -5591,10 +5591,10 @@
         <v>0.92010867112290995</v>
       </c>
       <c r="B45">
-        <v>0.11099080224583799</v>
+        <v>1.8419543648126972E-2</v>
       </c>
       <c r="C45">
-        <v>0.88900919775416198</v>
+        <v>0.13755601985389435</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -5602,10 +5602,10 @@
         <v>0.92019943916446834</v>
       </c>
       <c r="B46">
-        <v>0.11795087158733934</v>
+        <v>1.9552366467439186E-2</v>
       </c>
       <c r="C46">
-        <v>0.8820491284126607</v>
+        <v>0.13632403136790316</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -5613,10 +5613,10 @@
         <v>0.92248935388524456</v>
       </c>
       <c r="B47">
-        <v>0.11438763640615519</v>
+        <v>1.8417584621293167E-2</v>
       </c>
       <c r="C47">
-        <v>0.88561236359384488</v>
+        <v>0.13294705756667638</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -5624,10 +5624,10 @@
         <v>0.92364310751441958</v>
       </c>
       <c r="B48">
-        <v>0.11711625011773667</v>
+        <v>1.8576232351089936E-2</v>
       </c>
       <c r="C48">
-        <v>0.88288374988226337</v>
+        <v>0.13056460845852677</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -5635,10 +5635,10 @@
         <v>0.93064870851158354</v>
       </c>
       <c r="B49">
-        <v>9.0849254760821493E-2</v>
+        <v>1.3087845295915997E-2</v>
       </c>
       <c r="C49">
-        <v>0.9091507452391786</v>
+        <v>0.12211363352261972</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -5646,10 +5646,10 @@
         <v>0.93205408126837042</v>
       </c>
       <c r="B50">
-        <v>9.1375689496402346E-2</v>
+        <v>1.2896927930758445E-2</v>
       </c>
       <c r="C50">
-        <v>0.9086243105035976</v>
+        <v>0.11956977980460828</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -5657,10 +5657,10 @@
         <v>0.93090098676020394</v>
       </c>
       <c r="B51">
-        <v>0.10506880020664701</v>
+        <v>1.508126770609325E-2</v>
       </c>
       <c r="C51">
-        <v>0.89493119979335289</v>
+        <v>0.1197664554041087</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -5668,10 +5668,10 @@
         <v>0.94688933224348137</v>
       </c>
       <c r="B52">
-        <v>1.8973999853939313E-2</v>
+        <v>2.0933068051025945E-3</v>
       </c>
       <c r="C52">
-        <v>0.98102600014606078</v>
+        <v>0.1009104124519918</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -5679,10 +5679,10 @@
         <v>0.93678413856143217</v>
       </c>
       <c r="B53">
-        <v>8.7681739973941367E-2</v>
+        <v>1.1514032486034447E-2</v>
       </c>
       <c r="C53">
-        <v>0.91231826002605865</v>
+        <v>0.1116981884268843</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -5690,10 +5690,10 @@
         <v>0.93406138346443568</v>
       </c>
       <c r="B54">
-        <v>0.11137731860679168</v>
+        <v>1.5255583369817831E-2</v>
       </c>
       <c r="C54">
-        <v>0.88862268139320832</v>
+        <v>0.11348303101058066</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -5701,10 +5701,10 @@
         <v>0.94469480436610986</v>
       </c>
       <c r="B55">
-        <v>5.2672326528661904E-2</v>
+        <v>6.0511882658019957E-3</v>
       </c>
       <c r="C55">
-        <v>0.94732767347133806</v>
+        <v>0.10147051367230023</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -5712,10 +5712,10 @@
         <v>0.94591805525409389</v>
       </c>
       <c r="B56">
-        <v>5.5983221438897286E-2</v>
+        <v>6.2893015210119009E-3</v>
       </c>
       <c r="C56">
-        <v>0.94401677856110278</v>
+        <v>9.8879375597189983E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -5723,10 +5723,10 @@
         <v>0.93978838797272246</v>
       </c>
       <c r="B57">
-        <v>0.10031570311809998</v>
+        <v>1.2547043586623978E-2</v>
       </c>
       <c r="C57">
-        <v>0.89968429688189999</v>
+        <v>0.10491657310648735</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -5734,10 +5734,10 @@
         <v>0.94677953080126642</v>
       </c>
       <c r="B58">
-        <v>6.3455064982947743E-2</v>
+        <v>7.0151542180891448E-3</v>
       </c>
       <c r="C58">
-        <v>0.93654493501705238</v>
+        <v>9.6534159652475734E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -5745,10 +5745,10 @@
         <v>0.95008184138082541</v>
       </c>
       <c r="B59">
-        <v>4.7130994133428993E-2</v>
+        <v>4.8871693418817488E-3</v>
       </c>
       <c r="C59">
-        <v>0.95286900586657097</v>
+        <v>9.212244571969061E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -5756,10 +5756,10 @@
         <v>0.94515421157198432</v>
       </c>
       <c r="B60">
-        <v>8.7870016354835032E-2</v>
+        <v>1.001097142685467E-2</v>
       </c>
       <c r="C60">
-        <v>0.91212998364516495</v>
+        <v>9.6888831436016717E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -5767,10 +5767,10 @@
         <v>0.94861272367650173</v>
       </c>
       <c r="B61">
-        <v>7.0783587226857514E-2</v>
+        <v>7.5557990367010304E-3</v>
       </c>
       <c r="C61">
-        <v>0.92921641277314249</v>
+        <v>9.2479649136116532E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -5778,10 +5778,10 @@
         <v>0.94807617046547077</v>
       </c>
       <c r="B62">
-        <v>8.2139899463030214E-2</v>
+        <v>8.8595795700365555E-3</v>
       </c>
       <c r="C62">
-        <v>0.91786010053696976</v>
+        <v>9.2303232129084409E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -5789,10 +5789,10 @@
         <v>0.94876195120130236</v>
       </c>
       <c r="B63">
-        <v>8.3326617346087539E-2</v>
+        <v>8.8688756455668066E-3</v>
       </c>
       <c r="C63">
-        <v>0.91667338265391241</v>
+        <v>9.0966378623586808E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -5800,10 +5800,10 @@
         <v>0.95061415898274637</v>
       </c>
       <c r="B64">
-        <v>7.5112163649854902E-2</v>
+        <v>7.7055733137842983E-3</v>
       </c>
       <c r="C64">
-        <v>0.92488783635014504</v>
+        <v>8.8463725232502316E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -5811,10 +5811,10 @@
         <v>0.95507214647111238</v>
       </c>
       <c r="B65">
-        <v>4.4641290159218E-2</v>
+        <v>4.1662433964884532E-3</v>
       </c>
       <c r="C65">
-        <v>0.95535870984078197</v>
+        <v>8.3129628451522414E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -5822,10 +5822,10 @@
         <v>0.95232504902552628</v>
       </c>
       <c r="B66">
-        <v>7.3444071701409014E-2</v>
+        <v>7.2734294659899954E-3</v>
       </c>
       <c r="C66">
-        <v>0.9265559282985909</v>
+        <v>8.5553069527669154E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -5833,10 +5833,10 @@
         <v>0.95496108638853383</v>
       </c>
       <c r="B67">
-        <v>5.9447104373963659E-2</v>
+        <v>5.5617420434025157E-3</v>
       </c>
       <c r="C67">
-        <v>0.94055289562603639</v>
+        <v>8.2043623492976683E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -5844,10 +5844,10 @@
         <v>0.95647438202761526</v>
       </c>
       <c r="B68">
-        <v>5.1762149663477641E-2</v>
+        <v>4.6800390908881941E-3</v>
       </c>
       <c r="C68">
-        <v>0.9482378503365223</v>
+        <v>7.9934807710699524E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -5855,10 +5855,10 @@
         <v>0.95305632867932633</v>
       </c>
       <c r="B69">
-        <v>8.7245808271588218E-2</v>
+        <v>8.5077330110006292E-3</v>
       </c>
       <c r="C69">
-        <v>0.91275419172841177</v>
+        <v>8.298595368641902E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -5866,10 +5866,10 @@
         <v>0.95030565031028913</v>
       </c>
       <c r="B70">
-        <v>0.11098529797942325</v>
+        <v>1.1456835955195912E-2</v>
       </c>
       <c r="C70">
-        <v>0.88901470202057675</v>
+        <v>8.5563719767239768E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -5877,10 +5877,10 @@
         <v>0.95672857838629888</v>
       </c>
       <c r="B71">
-        <v>6.8199826315155587E-2</v>
+        <v>6.1302284980601753E-3</v>
       </c>
       <c r="C71">
-        <v>0.93180017368484447</v>
+        <v>7.8090400892691342E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -5888,10 +5888,10 @@
         <v>0.95128499621585971</v>
       </c>
       <c r="B72">
-        <v>0.11099234837592852</v>
+        <v>1.1231765084689153E-2</v>
       </c>
       <c r="C72">
-        <v>0.88900765162407147</v>
+        <v>8.3876817017680821E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -5899,10 +5899,10 @@
         <v>0.96006559118578683</v>
       </c>
       <c r="B73">
-        <v>4.7328162188371922E-2</v>
+        <v>3.926079873028363E-3</v>
       </c>
       <c r="C73">
-        <v>0.95267183781162812</v>
+        <v>7.3682489093579606E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -5910,10 +5910,10 @@
         <v>0.95285008446259378</v>
       </c>
       <c r="B74">
-        <v>0.10761059938641696</v>
+        <v>1.0539698803647267E-2</v>
       </c>
       <c r="C74">
-        <v>0.89238940061358307</v>
+        <v>8.1490883104005457E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -5921,10 +5921,10 @@
         <v>0.9635633329581671</v>
       </c>
       <c r="B75">
-        <v>2.2621086034513446E-2</v>
+        <v>1.7121599188543223E-3</v>
       </c>
       <c r="C75">
-        <v>0.9773789139654866</v>
+        <v>6.8972395708976036E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -5932,10 +5932,10 @@
         <v>0.96219597249841249</v>
       </c>
       <c r="B76">
-        <v>3.7653668719878353E-2</v>
+        <v>2.9569065434091107E-3</v>
       </c>
       <c r="C76">
-        <v>0.9623463312801217</v>
+        <v>7.0460085730366412E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -5943,10 +5943,10 @@
         <v>0.95581069545660058</v>
       </c>
       <c r="B77">
-        <v>0.10022316271403395</v>
+        <v>9.1997812462470737E-3</v>
       </c>
       <c r="C77">
-        <v>0.89977683728596602</v>
+        <v>7.700619726492279E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -5954,10 +5954,10 @@
         <v>0.95431055206555349</v>
       </c>
       <c r="B78">
-        <v>0.11372755296137303</v>
+        <v>1.0793786804463334E-2</v>
       </c>
       <c r="C78">
-        <v>0.88627244703862695</v>
+        <v>7.8425421271374932E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -5965,10 +5965,10 @@
         <v>0.95626303733205276</v>
       </c>
       <c r="B79">
-        <v>0.10517448253832477</v>
+        <v>9.5554519841285473E-3</v>
       </c>
       <c r="C79">
-        <v>0.89482551746167516</v>
+        <v>7.5798512342536581E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -5976,10 +5976,10 @@
         <v>0.95958754601047003</v>
       </c>
       <c r="B80">
-        <v>8.3544375427801118E-2</v>
+        <v>7.0133363951220135E-3</v>
       </c>
       <c r="C80">
-        <v>0.91645562457219887</v>
+        <v>7.1729923217462729E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -5987,10 +5987,10 @@
         <v>0.95729577951260247</v>
       </c>
       <c r="B81">
-        <v>0.10506212884929338</v>
+        <v>9.3198565094635422E-3</v>
       </c>
       <c r="C81">
-        <v>0.89493787115070667</v>
+        <v>7.4018006995830096E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -5998,10 +5998,10 @@
         <v>0.96072509941201234</v>
       </c>
       <c r="B82">
-        <v>7.9271338053303789E-2</v>
+        <v>6.4673075467503336E-3</v>
       </c>
       <c r="C82">
-        <v>0.92072866194669611</v>
+        <v>7.0035858893854136E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -6009,10 +6009,10 @@
         <v>0.96611836128269568</v>
       </c>
       <c r="B83">
-        <v>3.9354949962021345E-2</v>
+        <v>2.7698484162681069E-3</v>
       </c>
       <c r="C83">
-        <v>0.96064505003797862</v>
+        <v>6.3037801500019072E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -6020,10 +6020,10 @@
         <v>0.95824576506627723</v>
       </c>
       <c r="B84">
-        <v>0.11215915759482509</v>
+        <v>9.728088206875405E-3</v>
       </c>
       <c r="C84">
-        <v>0.88784084240517491</v>
+        <v>7.1797504882928742E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
@@ -6031,10 +6031,10 @@
         <v>0.95740819597014104</v>
       </c>
       <c r="B85">
-        <v>0.12158735009765563</v>
+        <v>1.0757383701138991E-2</v>
       </c>
       <c r="C85">
-        <v>0.87841264990234447</v>
+        <v>7.2459998172571968E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -6042,10 +6042,10 @@
         <v>0.960729004764585</v>
       </c>
       <c r="B86">
-        <v>0.10103918145553867</v>
+        <v>8.2424051361477662E-3</v>
       </c>
       <c r="C86">
-        <v>0.8989608185444613</v>
+        <v>6.8373273450288666E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -6053,10 +6053,10 @@
         <v>0.95896024631353294</v>
       </c>
       <c r="B87">
-        <v>0.11801009541837963</v>
+        <v>1.0060420596042653E-2</v>
       </c>
       <c r="C87">
-        <v>0.8819899045816203</v>
+        <v>7.010388100631805E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -6064,10 +6064,10 @@
         <v>0.96467437974499126</v>
       </c>
       <c r="B88">
-        <v>7.7131394204808523E-2</v>
+        <v>5.6599579964329129E-3</v>
       </c>
       <c r="C88">
-        <v>0.92286860579519137</v>
+        <v>6.3139824472434714E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -6075,10 +6075,329 @@
         <v>0.97060483001769515</v>
       </c>
       <c r="B89">
-        <v>5.2076282459996587E-3</v>
+        <v>3.1798613233938779E-4</v>
       </c>
       <c r="C89">
-        <v>0.99479237175400037</v>
+        <v>5.6634637371881978E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90">
+        <v>0.9693856343916033</v>
+      </c>
+      <c r="B90">
+        <v>2.2909553228133827E-3</v>
+      </c>
+      <c r="C90">
+        <v>5.7156406849416731E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91">
+        <v>0.96458088594592784</v>
+      </c>
+      <c r="B91">
+        <v>6.0860975619562423E-3</v>
+      </c>
+      <c r="C91">
+        <v>6.2923585137524093E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92">
+        <v>0.96137280142789305</v>
+      </c>
+      <c r="B92">
+        <v>9.5420595357252613E-3</v>
+      </c>
+      <c r="C92">
+        <v>6.5914660124946442E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93">
+        <v>0.96386539265991478</v>
+      </c>
+      <c r="B93">
+        <v>7.6602983800394186E-3</v>
+      </c>
+      <c r="C93">
+        <v>6.2841602628614976E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94">
+        <v>0.96279407233429559</v>
+      </c>
+      <c r="B94">
+        <v>8.6320114833311427E-3</v>
+      </c>
+      <c r="C94">
+        <v>6.4010501005747164E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>0.96579312775410164</v>
+      </c>
+      <c r="B95">
+        <v>6.5849447322845357E-3</v>
+      </c>
+      <c r="C95">
+        <v>6.0110672241531903E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>0.96313331408832803</v>
+      </c>
+      <c r="B96">
+        <v>8.9521348613983073E-3</v>
+      </c>
+      <c r="C96">
+        <v>6.3055005584120347E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>0.96404590140308377</v>
+      </c>
+      <c r="B97">
+        <v>8.4433201773287947E-3</v>
+      </c>
+      <c r="C97">
+        <v>6.1761947641218735E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>0.97287603695651681</v>
+      </c>
+      <c r="B98">
+        <v>1.0494338677108173E-3</v>
+      </c>
+      <c r="C98">
+        <v>5.1553906728023187E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>0.96366855206184088</v>
+      </c>
+      <c r="B99">
+        <v>9.1827509035772043E-3</v>
+      </c>
+      <c r="C99">
+        <v>6.1803367008762725E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>0.96849774954539625</v>
+      </c>
+      <c r="B100">
+        <v>5.6039905951089392E-3</v>
+      </c>
+      <c r="C100">
+        <v>5.5787092179007139E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>0.96561232132041031</v>
+      </c>
+      <c r="B101">
+        <v>8.0007113860838391E-3</v>
+      </c>
+      <c r="C101">
+        <v>5.9140851586344176E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>0.96979625770271838</v>
+      </c>
+      <c r="B102">
+        <v>4.3604416957345295E-3</v>
+      </c>
+      <c r="C102">
+        <v>5.443163519098463E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>0.96540722607515095</v>
+      </c>
+      <c r="B103">
+        <v>8.7958343650861252E-3</v>
+      </c>
+      <c r="C103">
+        <v>5.8796732757822115E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>0.97942715364876076</v>
+      </c>
+      <c r="B104">
+        <v>-3.794789121738717E-3</v>
+      </c>
+      <c r="C104">
+        <v>4.338256472918977E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>0.96365686694626185</v>
+      </c>
+      <c r="B105">
+        <v>1.0854047592310515E-2</v>
+      </c>
+      <c r="C105">
+        <v>6.0267755739893535E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>0.96716297705302479</v>
+      </c>
+      <c r="B106">
+        <v>8.21663508008782E-3</v>
+      </c>
+      <c r="C106">
+        <v>5.5936300534395245E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>0.96965713198922521</v>
+      </c>
+      <c r="B107">
+        <v>5.7099693418850321E-3</v>
+      </c>
+      <c r="C107">
+        <v>5.34428476691865E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>0.96982597400510573</v>
+      </c>
+      <c r="B108">
+        <v>6.4329717982598783E-3</v>
+      </c>
+      <c r="C108">
+        <v>5.2441747577127253E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>0.96923168775765389</v>
+      </c>
+      <c r="B109">
+        <v>7.1088543935194431E-3</v>
+      </c>
+      <c r="C109">
+        <v>5.2962569070945938E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>0.96615326291213721</v>
+      </c>
+      <c r="B110">
+        <v>9.8726744508782337E-3</v>
+      </c>
+      <c r="C110">
+        <v>5.6347847833000127E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>0.96676402149124108</v>
+      </c>
+      <c r="B111">
+        <v>9.8032669465357315E-3</v>
+      </c>
+      <c r="C111">
+        <v>5.5229673239879762E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>0.97138269687032197</v>
+      </c>
+      <c r="B112">
+        <v>5.8288857276994404E-3</v>
+      </c>
+      <c r="C112">
+        <v>4.9989986500527737E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>0.97108128583524944</v>
+      </c>
+      <c r="B113">
+        <v>6.7418443017467694E-3</v>
+      </c>
+      <c r="C113">
+        <v>4.9722542688370903E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>0.98365616731640904</v>
+      </c>
+      <c r="B114">
+        <v>-3.762323146289106E-3</v>
+      </c>
+      <c r="C114">
+        <v>3.5161750095000215E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115">
+        <v>0.97195224200363983</v>
+      </c>
+      <c r="B115">
+        <v>6.0689422476027091E-3</v>
+      </c>
+      <c r="C115">
+        <v>4.8663101632435243E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>0.9709149158149204</v>
+      </c>
+      <c r="B116">
+        <v>7.6217191116399888E-3</v>
+      </c>
+      <c r="C116">
+        <v>4.9224403933088579E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>0.98026635915689353</v>
+      </c>
+      <c r="B117">
+        <v>-3.7592359412754015E-4</v>
+      </c>
+      <c r="C117">
+        <v>3.8569635352779165E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>0.99481244648384459</v>
+      </c>
+      <c r="B118">
+        <v>-1.2151358310567212E-2</v>
+      </c>
+      <c r="C118">
+        <v>2.1376381481603385E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8334,16 +8653,16 @@
         <v>5.4067735481175934</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L35" si="6">(1-SUM(C4:D4)/SUM(C$1:D$2))</f>
-        <v>7.3164180154044134E-2</v>
+        <f>(1-SUM(C4:D4)/SUM(C$3:D$3))</f>
+        <v>7.1056038904441454E-2</v>
       </c>
       <c r="M4">
-        <f>C4/SUM(C4:D4)</f>
-        <v>0.47470347195979307</v>
+        <f>C4/$C$3</f>
+        <v>0.9139395017306895</v>
       </c>
       <c r="N4">
-        <f>D4/SUM(C4:D4)</f>
-        <v>0.52529652804020699</v>
+        <f>D4/$D$3</f>
+        <v>0.94293344918786881</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -8383,16 +8702,16 @@
         <v>11.777874599341809</v>
       </c>
       <c r="L5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L5:L35" si="6">(1-SUM(C5:D5)/SUM(C$1:D$2))</f>
         <v>0.15887982118826283</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M68" si="7">C5/SUM(C5:D5)</f>
-        <v>0.46015788105197952</v>
+        <f t="shared" ref="M5:M68" si="7">C5/$C$3</f>
+        <v>0.80400203336058007</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N68" si="8">D5/SUM(C5:D5)</f>
-        <v>0.53984211894802037</v>
+        <f t="shared" ref="N5:N68" si="8">D5/$D$3</f>
+        <v>0.87942441672653071</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -8437,11 +8756,11 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>0.44358991856118357</v>
+        <v>0.6932457278030375</v>
       </c>
       <c r="N6">
         <f t="shared" si="8"/>
-        <v>0.55641008143881643</v>
+        <v>0.81074073803283808</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -8486,11 +8805,11 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>0.4307448490765165</v>
+        <v>0.61477923696502068</v>
       </c>
       <c r="N7">
         <f t="shared" si="8"/>
-        <v>0.56925515092348344</v>
+        <v>0.75750854997781147</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -8535,11 +8854,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>0.41805554856852511</v>
+        <v>0.5502410883292681</v>
       </c>
       <c r="N8">
         <f t="shared" si="8"/>
-        <v>0.58194445143147489</v>
+        <v>0.71413781192648085</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -8584,11 +8903,11 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>0.40601301311304311</v>
+        <v>0.4860905382618565</v>
       </c>
       <c r="N9">
         <f t="shared" si="8"/>
-        <v>0.59398698688695695</v>
+        <v>0.66303372013826711</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -8633,11 +8952,11 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>0.39153312923617678</v>
+        <v>0.43501016312066521</v>
       </c>
       <c r="N10">
         <f t="shared" si="8"/>
-        <v>0.60846687076382322</v>
+        <v>0.63030288716976635</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -8682,11 +9001,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="7"/>
-        <v>0.38022006430660349</v>
+        <v>0.38781408162357983</v>
       </c>
       <c r="N11">
         <f t="shared" si="8"/>
-        <v>0.6197799356933964</v>
+        <v>0.58939646563886894</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -8731,11 +9050,11 @@
       </c>
       <c r="M12">
         <f t="shared" si="7"/>
-        <v>0.36960005260644152</v>
+        <v>0.35110816182097382</v>
       </c>
       <c r="N12">
         <f t="shared" si="8"/>
-        <v>0.63039994739355854</v>
+        <v>0.5583500254380579</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -8780,11 +9099,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="7"/>
-        <v>0.35794851466074395</v>
+        <v>0.31707516052629436</v>
       </c>
       <c r="N13">
         <f t="shared" si="8"/>
-        <v>0.64205148533925605</v>
+        <v>0.53026502450269852</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -8829,11 +9148,11 @@
       </c>
       <c r="M14">
         <f t="shared" si="7"/>
-        <v>0.34753111184375168</v>
+        <v>0.28680327768414737</v>
       </c>
       <c r="N14">
         <f t="shared" si="8"/>
-        <v>0.65246888815624837</v>
+        <v>0.502032345981684</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -8878,11 +9197,11 @@
       </c>
       <c r="M15">
         <f t="shared" si="7"/>
-        <v>0.3362593971665413</v>
+        <v>0.25728870285794686</v>
       </c>
       <c r="N15">
         <f t="shared" si="8"/>
-        <v>0.6637406028334587</v>
+        <v>0.47350671692992324</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -8927,11 +9246,11 @@
       </c>
       <c r="M16">
         <f t="shared" si="7"/>
-        <v>0.32861342611322381</v>
+        <v>0.23895715417047472</v>
       </c>
       <c r="N16">
         <f t="shared" si="8"/>
-        <v>0.67138657388677625</v>
+        <v>0.45518595947117069</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -8976,11 +9295,11 @@
       </c>
       <c r="M17">
         <f t="shared" si="7"/>
-        <v>0.31520067329958629</v>
+        <v>0.21020647953730401</v>
       </c>
       <c r="N17">
         <f t="shared" si="8"/>
-        <v>0.68479932670041366</v>
+        <v>0.42579813830094104</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -9025,11 +9344,11 @@
       </c>
       <c r="M18">
         <f t="shared" si="7"/>
-        <v>0.30517974893378169</v>
+        <v>0.19078096329261979</v>
       </c>
       <c r="N18">
         <f t="shared" si="8"/>
-        <v>0.69482025106621836</v>
+        <v>0.40497970989868348</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -9074,11 +9393,11 @@
       </c>
       <c r="M19">
         <f t="shared" si="7"/>
-        <v>0.29694956949569495</v>
+        <v>0.17735847796186982</v>
       </c>
       <c r="N19">
         <f t="shared" si="8"/>
-        <v>0.70305043050430505</v>
+        <v>0.3915049008283607</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -9123,11 +9442,11 @@
       </c>
       <c r="M20">
         <f t="shared" si="7"/>
-        <v>0.28914312145499849</v>
+        <v>0.16236903391024413</v>
       </c>
       <c r="N20">
         <f t="shared" si="8"/>
-        <v>0.71085687854500146</v>
+        <v>0.37218081531071107</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -9172,11 +9491,11 @@
       </c>
       <c r="M21">
         <f t="shared" si="7"/>
-        <v>0.27790992227139422</v>
+        <v>0.14477194576346264</v>
       </c>
       <c r="N21">
         <f t="shared" si="8"/>
-        <v>0.72209007772860578</v>
+        <v>0.35071408452175312</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -9221,11 +9540,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="7"/>
-        <v>0.277534194667029</v>
+        <v>0.14168010010400958</v>
       </c>
       <c r="N22">
         <f t="shared" si="8"/>
-        <v>0.722465805332971</v>
+        <v>0.34386749359749524</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -9270,11 +9589,11 @@
       </c>
       <c r="M23">
         <f t="shared" si="7"/>
-        <v>0.26246319782093686</v>
+        <v>0.12357801090493674</v>
       </c>
       <c r="N23">
         <f t="shared" si="8"/>
-        <v>0.73753680217906314</v>
+        <v>0.3237710039014885</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -9319,11 +9638,11 @@
       </c>
       <c r="M24">
         <f t="shared" si="7"/>
-        <v>0.25838292583829259</v>
+        <v>0.11787169753661049</v>
       </c>
       <c r="N24">
         <f t="shared" si="8"/>
-        <v>0.7416170741617073</v>
+        <v>0.31543284830241897</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -9368,11 +9687,11 @@
       </c>
       <c r="M25">
         <f t="shared" si="7"/>
-        <v>0.24382068575818858</v>
+        <v>0.10311109322341089</v>
       </c>
       <c r="N25">
         <f t="shared" si="8"/>
-        <v>0.7561793142418114</v>
+        <v>0.29815432053470448</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -9417,11 +9736,11 @@
       </c>
       <c r="M26">
         <f t="shared" si="7"/>
-        <v>0.23790349618877696</v>
+        <v>9.4513427982367323E-2</v>
       </c>
       <c r="N26">
         <f t="shared" si="8"/>
-        <v>0.76209650381122296</v>
+        <v>0.28228261457248283</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -9466,11 +9785,11 @@
       </c>
       <c r="M27">
         <f t="shared" si="7"/>
-        <v>0.23358914262492192</v>
+        <v>9.0411141466340092E-2</v>
       </c>
       <c r="N27">
         <f t="shared" si="8"/>
-        <v>0.76641085737507808</v>
+        <v>0.27657468061414386</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -9515,11 +9834,11 @@
       </c>
       <c r="M28">
         <f t="shared" si="7"/>
-        <v>0.21810012412904894</v>
+        <v>7.8468231592810481E-2</v>
       </c>
       <c r="N28">
         <f t="shared" si="8"/>
-        <v>0.781899875870951</v>
+        <v>0.26228325689637322</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -9564,11 +9883,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="7"/>
-        <v>0.22758385512598178</v>
+        <v>8.2377093709579199E-2</v>
       </c>
       <c r="N29">
         <f t="shared" si="8"/>
-        <v>0.77241614487401822</v>
+        <v>0.26067406831668521</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -9613,11 +9932,11 @@
       </c>
       <c r="M30">
         <f t="shared" si="7"/>
-        <v>0.20143567134755769</v>
+        <v>6.4906484508971796E-2</v>
       </c>
       <c r="N30">
         <f t="shared" si="8"/>
-        <v>0.79856432865244231</v>
+        <v>0.23990709110489977</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -9662,11 +9981,11 @@
       </c>
       <c r="M31">
         <f t="shared" si="7"/>
-        <v>0.20359035508117079</v>
+        <v>6.5010002046544793E-2</v>
       </c>
       <c r="N31">
         <f t="shared" si="8"/>
-        <v>0.79640964491882915</v>
+        <v>0.23710513631963351</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -9711,11 +10030,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="7"/>
-        <v>0.18731526799437631</v>
+        <v>5.4973904125135517E-2</v>
       </c>
       <c r="N32">
         <f t="shared" si="8"/>
-        <v>0.81268473200562363</v>
+        <v>0.22237551897283489</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -9760,11 +10079,11 @@
       </c>
       <c r="M33">
         <f t="shared" si="7"/>
-        <v>0.19290733742166138</v>
+        <v>5.6784852539507234E-2</v>
       </c>
       <c r="N33">
         <f t="shared" si="8"/>
-        <v>0.80709266257833867</v>
+        <v>0.22150759707722306</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -9809,11 +10128,11 @@
       </c>
       <c r="M34">
         <f t="shared" si="7"/>
-        <v>0.17849581972801318</v>
+        <v>4.8577165950750185E-2</v>
       </c>
       <c r="N34">
         <f t="shared" si="8"/>
-        <v>0.82150418027198679</v>
+        <v>0.20844686762177797</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -9858,11 +10177,11 @@
       </c>
       <c r="M35">
         <f t="shared" si="7"/>
-        <v>0.16090429782157345</v>
+        <v>4.0319607773776273E-2</v>
       </c>
       <c r="N35">
         <f t="shared" si="8"/>
-        <v>0.83909570217842655</v>
+        <v>0.19603861343580933</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -9907,11 +10226,11 @@
       </c>
       <c r="M36">
         <f t="shared" si="7"/>
-        <v>0.17789047270009983</v>
+        <v>4.6532937057634435E-2</v>
       </c>
       <c r="N36">
         <f t="shared" si="8"/>
-        <v>0.82210952729990006</v>
+        <v>0.20050210127608625</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -9956,11 +10275,11 @@
       </c>
       <c r="M37">
         <f t="shared" si="7"/>
-        <v>0.16561751316090029</v>
+        <v>4.0536617882860546E-2</v>
       </c>
       <c r="N37">
         <f t="shared" si="8"/>
-        <v>0.83438248683909966</v>
+        <v>0.19040918892958827</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -10005,11 +10324,11 @@
       </c>
       <c r="M38">
         <f t="shared" si="7"/>
-        <v>0.15569801541294415</v>
+        <v>3.6013977723293622E-2</v>
       </c>
       <c r="N38">
         <f t="shared" si="8"/>
-        <v>0.84430198458705574</v>
+        <v>0.18208211780051989</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -10054,11 +10373,11 @@
       </c>
       <c r="M39">
         <f t="shared" si="7"/>
-        <v>0.15446556928106597</v>
+        <v>3.4891116627230323E-2</v>
       </c>
       <c r="N39">
         <f t="shared" si="8"/>
-        <v>0.84553443071893408</v>
+        <v>0.17807212750262538</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -10103,11 +10422,11 @@
       </c>
       <c r="M40">
         <f t="shared" si="7"/>
-        <v>0.15690808699408637</v>
+        <v>3.5055280391908222E-2</v>
       </c>
       <c r="N40">
         <f t="shared" si="8"/>
-        <v>0.84309191300591357</v>
+        <v>0.17561617444085462</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -10152,11 +10471,11 @@
       </c>
       <c r="M41">
         <f t="shared" si="7"/>
-        <v>0.11019313229421797</v>
+        <v>2.0576923641337428E-2</v>
       </c>
       <c r="N41">
         <f t="shared" si="8"/>
-        <v>0.88980686770578199</v>
+        <v>0.1549184497209912</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -10201,11 +10520,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="7"/>
-        <v>0.13057862449826602</v>
+        <v>2.5655739426866934E-2</v>
       </c>
       <c r="N42">
         <f t="shared" si="8"/>
-        <v>0.86942137550173404</v>
+        <v>0.15926642484488757</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -10250,11 +10569,11 @@
       </c>
       <c r="M43">
         <f t="shared" si="7"/>
-        <v>0.14117654751026931</v>
+        <v>2.8005879603245701E-2</v>
       </c>
       <c r="N43">
         <f t="shared" si="8"/>
-        <v>0.85882345248973069</v>
+        <v>0.15884444341308393</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -10299,11 +10618,11 @@
       </c>
       <c r="M44">
         <f t="shared" si="7"/>
-        <v>0.1287385538528851</v>
+        <v>2.4071126403233101E-2</v>
       </c>
       <c r="N44">
         <f t="shared" si="8"/>
-        <v>0.87126144614711487</v>
+        <v>0.15188600356503323</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -10348,11 +10667,11 @@
       </c>
       <c r="M45">
         <f t="shared" si="7"/>
-        <v>0.12151709013462927</v>
+        <v>2.1811080040061812E-2</v>
       </c>
       <c r="N45">
         <f t="shared" si="8"/>
-        <v>0.8784829098653707</v>
+        <v>0.14701261357883977</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -10397,11 +10716,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="7"/>
-        <v>0.12089577761132166</v>
+        <v>2.1110618376628955E-2</v>
       </c>
       <c r="N46">
         <f t="shared" si="8"/>
-        <v>0.87910422238867836</v>
+        <v>0.14312373433228334</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -10446,11 +10765,11 @@
       </c>
       <c r="M47">
         <f t="shared" si="7"/>
-        <v>0.11099080224583799</v>
+        <v>1.8419543648126972E-2</v>
       </c>
       <c r="N47">
         <f t="shared" si="8"/>
-        <v>0.88900919775416198</v>
+        <v>0.13755601985389435</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -10495,11 +10814,11 @@
       </c>
       <c r="M48">
         <f t="shared" si="7"/>
-        <v>0.11795087158733934</v>
+        <v>1.9552366467439186E-2</v>
       </c>
       <c r="N48">
         <f t="shared" si="8"/>
-        <v>0.8820491284126607</v>
+        <v>0.13632403136790316</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -10544,11 +10863,11 @@
       </c>
       <c r="M49">
         <f t="shared" si="7"/>
-        <v>0.11438763640615519</v>
+        <v>1.8417584621293167E-2</v>
       </c>
       <c r="N49">
         <f t="shared" si="8"/>
-        <v>0.88561236359384488</v>
+        <v>0.13294705756667638</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -10593,11 +10912,11 @@
       </c>
       <c r="M50">
         <f t="shared" si="7"/>
-        <v>0.11711625011773667</v>
+        <v>1.8576232351089936E-2</v>
       </c>
       <c r="N50">
         <f t="shared" si="8"/>
-        <v>0.88288374988226337</v>
+        <v>0.13056460845852677</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -10642,11 +10961,11 @@
       </c>
       <c r="M51">
         <f t="shared" si="7"/>
-        <v>9.0849254760821493E-2</v>
+        <v>1.3087845295915997E-2</v>
       </c>
       <c r="N51">
         <f t="shared" si="8"/>
-        <v>0.9091507452391786</v>
+        <v>0.12211363352261972</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -10691,11 +11010,11 @@
       </c>
       <c r="M52">
         <f t="shared" si="7"/>
-        <v>9.1375689496402346E-2</v>
+        <v>1.2896927930758445E-2</v>
       </c>
       <c r="N52">
         <f t="shared" si="8"/>
-        <v>0.9086243105035976</v>
+        <v>0.11956977980460828</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -10740,11 +11059,11 @@
       </c>
       <c r="M53">
         <f t="shared" si="7"/>
-        <v>0.10506880020664701</v>
+        <v>1.508126770609325E-2</v>
       </c>
       <c r="N53">
         <f t="shared" si="8"/>
-        <v>0.89493119979335289</v>
+        <v>0.1197664554041087</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -10789,11 +11108,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="7"/>
-        <v>1.8973999853939313E-2</v>
+        <v>2.0933068051025945E-3</v>
       </c>
       <c r="N54">
         <f t="shared" si="8"/>
-        <v>0.98102600014606078</v>
+        <v>0.1009104124519918</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -10838,11 +11157,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="7"/>
-        <v>8.7681739973941367E-2</v>
+        <v>1.1514032486034447E-2</v>
       </c>
       <c r="N55">
         <f t="shared" si="8"/>
-        <v>0.91231826002605865</v>
+        <v>0.1116981884268843</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -10887,11 +11206,11 @@
       </c>
       <c r="M56">
         <f t="shared" si="7"/>
-        <v>0.11137731860679168</v>
+        <v>1.5255583369817831E-2</v>
       </c>
       <c r="N56">
         <f t="shared" si="8"/>
-        <v>0.88862268139320832</v>
+        <v>0.11348303101058066</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -10936,11 +11255,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="7"/>
-        <v>5.2672326528661904E-2</v>
+        <v>6.0511882658019957E-3</v>
       </c>
       <c r="N57">
         <f t="shared" si="8"/>
-        <v>0.94732767347133806</v>
+        <v>0.10147051367230023</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -10985,11 +11304,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="7"/>
-        <v>5.5983221438897286E-2</v>
+        <v>6.2893015210119009E-3</v>
       </c>
       <c r="N58">
         <f t="shared" si="8"/>
-        <v>0.94401677856110278</v>
+        <v>9.8879375597189983E-2</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -11034,11 +11353,11 @@
       </c>
       <c r="M59">
         <f t="shared" si="7"/>
-        <v>0.10031570311809998</v>
+        <v>1.2547043586623978E-2</v>
       </c>
       <c r="N59">
         <f t="shared" si="8"/>
-        <v>0.89968429688189999</v>
+        <v>0.10491657310648735</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -11083,11 +11402,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="7"/>
-        <v>6.3455064982947743E-2</v>
+        <v>7.0151542180891448E-3</v>
       </c>
       <c r="N60">
         <f t="shared" si="8"/>
-        <v>0.93654493501705238</v>
+        <v>9.6534159652475734E-2</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -11132,11 +11451,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="7"/>
-        <v>4.7130994133428993E-2</v>
+        <v>4.8871693418817488E-3</v>
       </c>
       <c r="N61">
         <f t="shared" si="8"/>
-        <v>0.95286900586657097</v>
+        <v>9.212244571969061E-2</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -11181,11 +11500,11 @@
       </c>
       <c r="M62">
         <f t="shared" si="7"/>
-        <v>8.7870016354835032E-2</v>
+        <v>1.001097142685467E-2</v>
       </c>
       <c r="N62">
         <f t="shared" si="8"/>
-        <v>0.91212998364516495</v>
+        <v>9.6888831436016717E-2</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -11230,11 +11549,11 @@
       </c>
       <c r="M63">
         <f t="shared" si="7"/>
-        <v>7.0783587226857514E-2</v>
+        <v>7.5557990367010304E-3</v>
       </c>
       <c r="N63">
         <f t="shared" si="8"/>
-        <v>0.92921641277314249</v>
+        <v>9.2479649136116532E-2</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -11279,11 +11598,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="7"/>
-        <v>8.2139899463030214E-2</v>
+        <v>8.8595795700365555E-3</v>
       </c>
       <c r="N64">
         <f t="shared" si="8"/>
-        <v>0.91786010053696976</v>
+        <v>9.2303232129084409E-2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -11328,11 +11647,11 @@
       </c>
       <c r="M65">
         <f t="shared" si="7"/>
-        <v>8.3326617346087539E-2</v>
+        <v>8.8688756455668066E-3</v>
       </c>
       <c r="N65">
         <f t="shared" si="8"/>
-        <v>0.91667338265391241</v>
+        <v>9.0966378623586808E-2</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -11377,11 +11696,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="7"/>
-        <v>7.5112163649854902E-2</v>
+        <v>7.7055733137842983E-3</v>
       </c>
       <c r="N66">
         <f t="shared" si="8"/>
-        <v>0.92488783635014504</v>
+        <v>8.8463725232502316E-2</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -11426,11 +11745,11 @@
       </c>
       <c r="M67">
         <f t="shared" si="7"/>
-        <v>4.4641290159218E-2</v>
+        <v>4.1662433964884532E-3</v>
       </c>
       <c r="N67">
         <f t="shared" si="8"/>
-        <v>0.95535870984078197</v>
+        <v>8.3129628451522414E-2</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -11475,11 +11794,11 @@
       </c>
       <c r="M68">
         <f t="shared" si="7"/>
-        <v>7.3444071701409014E-2</v>
+        <v>7.2734294659899954E-3</v>
       </c>
       <c r="N68">
         <f t="shared" si="8"/>
-        <v>0.9265559282985909</v>
+        <v>8.5553069527669154E-2</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -11523,12 +11842,12 @@
         <v>0.95496108638853383</v>
       </c>
       <c r="M69">
-        <f t="shared" ref="M69:M121" si="17">C69/SUM(C69:D69)</f>
-        <v>5.9447104373963659E-2</v>
+        <f t="shared" ref="M69:M121" si="17">C69/$C$3</f>
+        <v>5.5617420434025157E-3</v>
       </c>
       <c r="N69">
-        <f t="shared" ref="N69:N121" si="18">D69/SUM(C69:D69)</f>
-        <v>0.94055289562603639</v>
+        <f t="shared" ref="N69:N121" si="18">D69/$D$3</f>
+        <v>8.2043623492976683E-2</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -11573,11 +11892,11 @@
       </c>
       <c r="M70">
         <f t="shared" si="17"/>
-        <v>5.1762149663477641E-2</v>
+        <v>4.6800390908881941E-3</v>
       </c>
       <c r="N70">
         <f t="shared" si="18"/>
-        <v>0.9482378503365223</v>
+        <v>7.9934807710699524E-2</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -11622,11 +11941,11 @@
       </c>
       <c r="M71">
         <f t="shared" si="17"/>
-        <v>8.7245808271588218E-2</v>
+        <v>8.5077330110006292E-3</v>
       </c>
       <c r="N71">
         <f t="shared" si="18"/>
-        <v>0.91275419172841177</v>
+        <v>8.298595368641902E-2</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -11671,11 +11990,11 @@
       </c>
       <c r="M72">
         <f t="shared" si="17"/>
-        <v>0.11098529797942325</v>
+        <v>1.1456835955195912E-2</v>
       </c>
       <c r="N72">
         <f t="shared" si="18"/>
-        <v>0.88901470202057675</v>
+        <v>8.5563719767239768E-2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -11720,11 +12039,11 @@
       </c>
       <c r="M73">
         <f t="shared" si="17"/>
-        <v>6.8199826315155587E-2</v>
+        <v>6.1302284980601753E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="18"/>
-        <v>0.93180017368484447</v>
+        <v>7.8090400892691342E-2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -11769,11 +12088,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="17"/>
-        <v>0.11099234837592852</v>
+        <v>1.1231765084689153E-2</v>
       </c>
       <c r="N74">
         <f t="shared" si="18"/>
-        <v>0.88900765162407147</v>
+        <v>8.3876817017680821E-2</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -11818,11 +12137,11 @@
       </c>
       <c r="M75">
         <f t="shared" si="17"/>
-        <v>4.7328162188371922E-2</v>
+        <v>3.926079873028363E-3</v>
       </c>
       <c r="N75">
         <f t="shared" si="18"/>
-        <v>0.95267183781162812</v>
+        <v>7.3682489093579606E-2</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -11867,11 +12186,11 @@
       </c>
       <c r="M76">
         <f t="shared" si="17"/>
-        <v>0.10761059938641696</v>
+        <v>1.0539698803647267E-2</v>
       </c>
       <c r="N76">
         <f t="shared" si="18"/>
-        <v>0.89238940061358307</v>
+        <v>8.1490883104005457E-2</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
@@ -11916,11 +12235,11 @@
       </c>
       <c r="M77">
         <f t="shared" si="17"/>
-        <v>2.2621086034513446E-2</v>
+        <v>1.7121599188543223E-3</v>
       </c>
       <c r="N77">
         <f t="shared" si="18"/>
-        <v>0.9773789139654866</v>
+        <v>6.8972395708976036E-2</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -11965,11 +12284,11 @@
       </c>
       <c r="M78">
         <f t="shared" si="17"/>
-        <v>3.7653668719878353E-2</v>
+        <v>2.9569065434091107E-3</v>
       </c>
       <c r="N78">
         <f t="shared" si="18"/>
-        <v>0.9623463312801217</v>
+        <v>7.0460085730366412E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -12014,11 +12333,11 @@
       </c>
       <c r="M79">
         <f t="shared" si="17"/>
-        <v>0.10022316271403395</v>
+        <v>9.1997812462470737E-3</v>
       </c>
       <c r="N79">
         <f t="shared" si="18"/>
-        <v>0.89977683728596602</v>
+        <v>7.700619726492279E-2</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -12063,11 +12382,11 @@
       </c>
       <c r="M80">
         <f t="shared" si="17"/>
-        <v>0.11372755296137303</v>
+        <v>1.0793786804463334E-2</v>
       </c>
       <c r="N80">
         <f t="shared" si="18"/>
-        <v>0.88627244703862695</v>
+        <v>7.8425421271374932E-2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
@@ -12112,11 +12431,11 @@
       </c>
       <c r="M81">
         <f t="shared" si="17"/>
-        <v>0.10517448253832477</v>
+        <v>9.5554519841285473E-3</v>
       </c>
       <c r="N81">
         <f t="shared" si="18"/>
-        <v>0.89482551746167516</v>
+        <v>7.5798512342536581E-2</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -12161,11 +12480,11 @@
       </c>
       <c r="M82">
         <f t="shared" si="17"/>
-        <v>8.3544375427801118E-2</v>
+        <v>7.0133363951220135E-3</v>
       </c>
       <c r="N82">
         <f t="shared" si="18"/>
-        <v>0.91645562457219887</v>
+        <v>7.1729923217462729E-2</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -12210,11 +12529,11 @@
       </c>
       <c r="M83">
         <f t="shared" si="17"/>
-        <v>0.10506212884929338</v>
+        <v>9.3198565094635422E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="18"/>
-        <v>0.89493787115070667</v>
+        <v>7.4018006995830096E-2</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -12259,11 +12578,11 @@
       </c>
       <c r="M84">
         <f t="shared" si="17"/>
-        <v>7.9271338053303789E-2</v>
+        <v>6.4673075467503336E-3</v>
       </c>
       <c r="N84">
         <f t="shared" si="18"/>
-        <v>0.92072866194669611</v>
+        <v>7.0035858893854136E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
@@ -12308,11 +12627,11 @@
       </c>
       <c r="M85">
         <f t="shared" si="17"/>
-        <v>3.9354949962021345E-2</v>
+        <v>2.7698484162681069E-3</v>
       </c>
       <c r="N85">
         <f t="shared" si="18"/>
-        <v>0.96064505003797862</v>
+        <v>6.3037801500019072E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -12357,11 +12676,11 @@
       </c>
       <c r="M86">
         <f t="shared" si="17"/>
-        <v>0.11215915759482509</v>
+        <v>9.728088206875405E-3</v>
       </c>
       <c r="N86">
         <f t="shared" si="18"/>
-        <v>0.88784084240517491</v>
+        <v>7.1797504882928742E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -12406,11 +12725,11 @@
       </c>
       <c r="M87">
         <f t="shared" si="17"/>
-        <v>0.12158735009765563</v>
+        <v>1.0757383701138991E-2</v>
       </c>
       <c r="N87">
         <f t="shared" si="18"/>
-        <v>0.87841264990234447</v>
+        <v>7.2459998172571968E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
@@ -12455,11 +12774,11 @@
       </c>
       <c r="M88">
         <f t="shared" si="17"/>
-        <v>0.10103918145553867</v>
+        <v>8.2424051361477662E-3</v>
       </c>
       <c r="N88">
         <f t="shared" si="18"/>
-        <v>0.8989608185444613</v>
+        <v>6.8373273450288666E-2</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -12504,11 +12823,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="17"/>
-        <v>0.11801009541837963</v>
+        <v>1.0060420596042653E-2</v>
       </c>
       <c r="N89">
         <f t="shared" si="18"/>
-        <v>0.8819899045816203</v>
+        <v>7.010388100631805E-2</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -12553,11 +12872,11 @@
       </c>
       <c r="M90">
         <f t="shared" si="17"/>
-        <v>7.7131394204808523E-2</v>
+        <v>5.6599579964329129E-3</v>
       </c>
       <c r="N90">
         <f t="shared" si="18"/>
-        <v>0.92286860579519137</v>
+        <v>6.3139824472434714E-2</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -12602,11 +12921,11 @@
       </c>
       <c r="M91">
         <f t="shared" si="17"/>
-        <v>5.2076282459996587E-3</v>
+        <v>3.1798613233938779E-4</v>
       </c>
       <c r="N91">
         <f t="shared" si="18"/>
-        <v>0.99479237175400037</v>
+        <v>5.6634637371881978E-2</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -12651,11 +12970,11 @@
       </c>
       <c r="M92">
         <f t="shared" si="17"/>
-        <v>3.602459647918619E-2</v>
+        <v>2.2909553228133827E-3</v>
       </c>
       <c r="N92">
         <f t="shared" si="18"/>
-        <v>0.96397540352081379</v>
+        <v>5.7156406849416731E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -12700,11 +13019,11 @@
       </c>
       <c r="M93">
         <f t="shared" si="17"/>
-        <v>8.2719706625048683E-2</v>
+        <v>6.0860975619562423E-3</v>
       </c>
       <c r="N93">
         <f t="shared" si="18"/>
-        <v>0.91728029337495132</v>
+        <v>6.2923585137524093E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -12749,11 +13068,11 @@
       </c>
       <c r="M94">
         <f t="shared" si="17"/>
-        <v>0.11892048702863253</v>
+        <v>9.5420595357252613E-3</v>
       </c>
       <c r="N94">
         <f t="shared" si="18"/>
-        <v>0.88107951297136744</v>
+        <v>6.5914660124946442E-2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -12798,11 +13117,11 @@
       </c>
       <c r="M95">
         <f t="shared" si="17"/>
-        <v>0.10205401985346518</v>
+        <v>7.6602983800394186E-3</v>
       </c>
       <c r="N95">
         <f t="shared" si="18"/>
-        <v>0.89794598014653482</v>
+        <v>6.2841602628614976E-2</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -12847,11 +13166,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="17"/>
-        <v>0.11168828992622817</v>
+        <v>8.6320114833311427E-3</v>
       </c>
       <c r="N96">
         <f t="shared" si="18"/>
-        <v>0.88831171007377185</v>
+        <v>6.4010501005747164E-2</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -12896,11 +13215,11 @@
       </c>
       <c r="M97">
         <f t="shared" si="17"/>
-        <v>9.2671573693410864E-2</v>
+        <v>6.5849447322845357E-3</v>
       </c>
       <c r="N97">
         <f t="shared" si="18"/>
-        <v>0.90732842630658916</v>
+        <v>6.0110672241531903E-2</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -12945,11 +13264,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="17"/>
-        <v>0.11689617119380086</v>
+        <v>8.9521348613983073E-3</v>
       </c>
       <c r="N98">
         <f t="shared" si="18"/>
-        <v>0.88310382880619909</v>
+        <v>6.3055005584120347E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -12994,11 +13313,11 @@
       </c>
       <c r="M99">
         <f t="shared" si="17"/>
-        <v>0.11305053520733921</v>
+        <v>8.4433201773287947E-3</v>
       </c>
       <c r="N99">
         <f t="shared" si="18"/>
-        <v>0.88694946479266068</v>
+        <v>6.1761947641218735E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
@@ -13043,11 +13362,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="17"/>
-        <v>1.8625575526476919E-2</v>
+        <v>1.0494338677108173E-3</v>
       </c>
       <c r="N100">
         <f t="shared" si="18"/>
-        <v>0.98137442447352297</v>
+        <v>5.1553906728023187E-2</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.15">
@@ -13092,11 +13411,11 @@
       </c>
       <c r="M101">
         <f t="shared" si="17"/>
-        <v>0.121674022688451</v>
+        <v>9.1827509035772043E-3</v>
       </c>
       <c r="N101">
         <f t="shared" si="18"/>
-        <v>0.87832597731154904</v>
+        <v>6.1803367008762725E-2</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.15">
@@ -13141,11 +13460,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="17"/>
-        <v>8.5637422439677507E-2</v>
+        <v>5.6039905951089392E-3</v>
       </c>
       <c r="N102">
         <f t="shared" si="18"/>
-        <v>0.91436257756032258</v>
+        <v>5.5787092179007139E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.15">
@@ -13190,11 +13509,11 @@
       </c>
       <c r="M103">
         <f t="shared" si="17"/>
-        <v>0.1120039950098761</v>
+        <v>8.0007113860838391E-3</v>
       </c>
       <c r="N103">
         <f t="shared" si="18"/>
-        <v>0.88799600499012399</v>
+        <v>5.9140851586344176E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
@@ -13239,11 +13558,11 @@
       </c>
       <c r="M104">
         <f t="shared" si="17"/>
-        <v>6.9498830595224298E-2</v>
+        <v>4.3604416957345295E-3</v>
       </c>
       <c r="N104">
         <f t="shared" si="18"/>
-        <v>0.93050116940477579</v>
+        <v>5.443163519098463E-2</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.15">
@@ -13288,11 +13607,11 @@
       </c>
       <c r="M105">
         <f t="shared" si="17"/>
-        <v>0.12240507472120637</v>
+        <v>8.7958343650861252E-3</v>
       </c>
       <c r="N105">
         <f t="shared" si="18"/>
-        <v>0.87759492527879357</v>
+        <v>5.8796732757822115E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
@@ -13337,11 +13656,11 @@
       </c>
       <c r="M106">
         <f t="shared" si="17"/>
-        <v>-8.8797560308220599E-2</v>
+        <v>-3.794789121738717E-3</v>
       </c>
       <c r="N106">
         <f t="shared" si="18"/>
-        <v>1.0887975603082205</v>
+        <v>4.338256472918977E-2</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -13386,11 +13705,11 @@
       </c>
       <c r="M107">
         <f t="shared" si="17"/>
-        <v>0.14377293112664957</v>
+        <v>1.0854047592310515E-2</v>
       </c>
       <c r="N107">
         <f t="shared" si="18"/>
-        <v>0.85622706887335043</v>
+        <v>6.0267755739893535E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.15">
@@ -13435,11 +13754,11 @@
       </c>
       <c r="M108">
         <f t="shared" si="17"/>
-        <v>0.12045865019011405</v>
+        <v>8.21663508008782E-3</v>
       </c>
       <c r="N108">
         <f t="shared" si="18"/>
-        <v>0.87954134980988596</v>
+        <v>5.5936300534395245E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.15">
@@ -13484,11 +13803,11 @@
       </c>
       <c r="M109">
         <f t="shared" si="17"/>
-        <v>9.0590971673085496E-2</v>
+        <v>5.7099693418850321E-3</v>
       </c>
       <c r="N109">
         <f t="shared" si="18"/>
-        <v>0.9094090283269145</v>
+        <v>5.34428476691865E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.15">
@@ -13533,11 +13852,11 @@
       </c>
       <c r="M110">
         <f t="shared" si="17"/>
-        <v>0.10263279512809197</v>
+        <v>6.4329717982598783E-3</v>
       </c>
       <c r="N110">
         <f t="shared" si="18"/>
-        <v>0.89736720487190802</v>
+        <v>5.2441747577127253E-2</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.15">
@@ -13582,11 +13901,11 @@
       </c>
       <c r="M111">
         <f t="shared" si="17"/>
-        <v>0.11122533286121675</v>
+        <v>7.1088543935194431E-3</v>
       </c>
       <c r="N111">
         <f t="shared" si="18"/>
-        <v>0.88877466713878317</v>
+        <v>5.2962569070945938E-2</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.15">
@@ -13631,11 +13950,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="17"/>
-        <v>0.14041896834893272</v>
+        <v>9.8726744508782337E-3</v>
       </c>
       <c r="N112">
         <f t="shared" si="18"/>
-        <v>0.85958103165106736</v>
+        <v>5.6347847833000127E-2</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.15">
@@ -13680,11 +13999,11 @@
       </c>
       <c r="M113">
         <f t="shared" si="17"/>
-        <v>0.14199404421028519</v>
+        <v>9.8032669465357315E-3</v>
       </c>
       <c r="N113">
         <f t="shared" si="18"/>
-        <v>0.85800595578971472</v>
+        <v>5.5229673239879762E-2</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.15">
@@ -13729,11 +14048,11 @@
       </c>
       <c r="M114">
         <f t="shared" si="17"/>
-        <v>9.8053840145852181E-2</v>
+        <v>5.8288857276994404E-3</v>
       </c>
       <c r="N114">
         <f t="shared" si="18"/>
-        <v>0.90194615985414783</v>
+        <v>4.9989986500527737E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.15">
@@ -13778,11 +14097,11 @@
       </c>
       <c r="M115">
         <f t="shared" si="17"/>
-        <v>0.11222962435996535</v>
+        <v>6.7418443017467694E-3</v>
       </c>
       <c r="N115">
         <f t="shared" si="18"/>
-        <v>0.88777037564003469</v>
+        <v>4.9722542688370903E-2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.15">
@@ -13827,11 +14146,11 @@
       </c>
       <c r="M116">
         <f t="shared" si="17"/>
-        <v>-0.11081791024688954</v>
+        <v>-3.762323146289106E-3</v>
       </c>
       <c r="N116">
         <f t="shared" si="18"/>
-        <v>1.1108179102468896</v>
+        <v>3.5161750095000215E-2</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.15">
@@ -13876,11 +14195,11 @@
       </c>
       <c r="M117">
         <f t="shared" si="17"/>
-        <v>0.10416519293656713</v>
+        <v>6.0689422476027091E-3</v>
       </c>
       <c r="N117">
         <f t="shared" si="18"/>
-        <v>0.89583480706343288</v>
+        <v>4.8663101632435243E-2</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.15">
@@ -13925,11 +14244,11 @@
       </c>
       <c r="M118">
         <f t="shared" si="17"/>
-        <v>0.12615090882098776</v>
+        <v>7.6217191116399888E-3</v>
       </c>
       <c r="N118">
         <f t="shared" si="18"/>
-        <v>0.87384909117901222</v>
+        <v>4.9224403933088579E-2</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.15">
@@ -13974,11 +14293,11 @@
       </c>
       <c r="M119">
         <f t="shared" si="17"/>
-        <v>-9.1706503202016801E-3</v>
+        <v>-3.7592359412754015E-4</v>
       </c>
       <c r="N119">
         <f t="shared" si="18"/>
-        <v>1.0091706503202016</v>
+        <v>3.8569635352779165E-2</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.15">
@@ -14022,12 +14341,12 @@
         <v>0.99481244648384459</v>
       </c>
       <c r="M120">
-        <f>C120/SUM(C120:D120)</f>
-        <v>-1.1276387892479354</v>
+        <f t="shared" si="17"/>
+        <v>-1.2151358310567212E-2</v>
       </c>
       <c r="N120">
         <f t="shared" si="18"/>
-        <v>2.1276387892479351</v>
+        <v>2.1376381481603385E-2</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.15">
@@ -14072,11 +14391,11 @@
       </c>
       <c r="M121">
         <f t="shared" si="17"/>
-        <v>1.6377918210411933E-2</v>
+        <v>6.8729514881280972E-4</v>
       </c>
       <c r="N121">
         <f t="shared" si="18"/>
-        <v>0.98362208178958799</v>
+        <v>3.8485250847070177E-2</v>
       </c>
     </row>
   </sheetData>
